--- a/NhanVien.xlsx
+++ b/NhanVien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Huanpmd.drive\XET NGHIEM\programming\TotalQualityControl\StreamLit\KPIregistration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF091E6-614B-42CB-ACD4-A4DBCCAB5FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C719EAB-2DA3-4E5F-B2D9-5DA7510985EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43B4B42D-CD29-4B55-A0D7-A281B2646AEA}"/>
+    <workbookView xWindow="8145" yWindow="750" windowWidth="19920" windowHeight="14445" xr2:uid="{43B4B42D-CD29-4B55-A0D7-A281B2646AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="170">
   <si>
     <t>maNVYT</t>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>01605.bvhv</t>
+  </si>
+  <si>
+    <t>chucVu</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -910,1417 +919,1579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B282AF-CB57-4B5E-AD69-43F252619F9D}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1605</v>
       </c>
       <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>35015</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>906884435</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1678</v>
       </c>
       <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>123456</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>34838</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1034</v>
       </c>
       <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>123456</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>24436</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>908212026</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1036</v>
       </c>
       <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>123456</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>123456</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>26725</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>363570339</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1040</v>
       </c>
       <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>123456</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>28117</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>848686560</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1041</v>
       </c>
       <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
-        <v>123456</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>123456</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>26190</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>934118039</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1042</v>
       </c>
       <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
-        <v>123456</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>123456</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>28405</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>932127400</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1043</v>
       </c>
       <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9">
-        <v>123456</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>26010</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>974676727</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1044</v>
       </c>
       <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10">
-        <v>123456</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>27234</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>389980168</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1045</v>
       </c>
       <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11">
-        <v>123456</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>26781</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>917551525</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1046</v>
       </c>
       <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C12">
-        <v>123456</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>123456</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>29175</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>961881508</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1047</v>
       </c>
       <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C13">
-        <v>123456</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>123456</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>25821</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>914691112</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1049</v>
       </c>
       <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14">
-        <v>123456</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>123456</v>
+      </c>
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>28232</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>909248895</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1050</v>
       </c>
       <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C15">
-        <v>123456</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>123456</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>29749</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>902303305</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1051</v>
       </c>
       <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="C16">
-        <v>123456</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>123456</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>28929</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>977717167</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1052</v>
       </c>
       <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="C17">
-        <v>123456</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>123456</v>
+      </c>
+      <c r="E17" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>29965</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>907226205</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1053</v>
       </c>
       <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18">
-        <v>123456</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>123456</v>
+      </c>
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>29014</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>908953200</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1054</v>
       </c>
       <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19">
-        <v>123456</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>123456</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>30652</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>936389953</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1058</v>
       </c>
       <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20">
-        <v>123456</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>123456</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>26446</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>939067868</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1059</v>
       </c>
       <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="C21">
-        <v>123456</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>123456</v>
+      </c>
+      <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>31557</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>985906071</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1061</v>
       </c>
       <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="C22">
-        <v>123456</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>123456</v>
+      </c>
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>30396</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>934946566</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1062</v>
       </c>
       <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="C23">
-        <v>123456</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>123456</v>
+      </c>
+      <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>31586</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>935176028</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1063</v>
       </c>
       <c r="B24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="C24">
-        <v>123456</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>123456</v>
+      </c>
+      <c r="E24" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>31164</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>933973685</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1064</v>
       </c>
       <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25">
-        <v>123456</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>123456</v>
+      </c>
+      <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>31029</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>908995041</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1065</v>
       </c>
       <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="C26">
-        <v>123456</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>123456</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>30472</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>933834514</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1066</v>
       </c>
       <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="C27">
-        <v>123456</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>123456</v>
+      </c>
+      <c r="E27" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>31417</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>902884600</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1067</v>
       </c>
       <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="C28">
-        <v>123456</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>123456</v>
+      </c>
+      <c r="E28" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>29990</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>939240699</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1068</v>
       </c>
       <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
         <v>88</v>
       </c>
-      <c r="C29">
-        <v>123456</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>123456</v>
+      </c>
+      <c r="E29" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>29540</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>974446008</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1069</v>
       </c>
       <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="C30">
-        <v>123456</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>123456</v>
+      </c>
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>30897</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>917311101</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1071</v>
       </c>
       <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="C31">
-        <v>123456</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>123456</v>
+      </c>
+      <c r="E31" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>29024</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>918873032</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1073</v>
       </c>
       <c r="B32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="C32">
-        <v>123456</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>123456</v>
+      </c>
+      <c r="E32" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>32141</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>904142800</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1149</v>
       </c>
       <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" t="s">
         <v>100</v>
       </c>
-      <c r="C33">
-        <v>123456</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>123456</v>
+      </c>
+      <c r="E33" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>31055</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>908552155</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1169</v>
       </c>
       <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
         <v>103</v>
       </c>
-      <c r="C34">
-        <v>123456</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>123456</v>
+      </c>
+      <c r="E34" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>30625</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>944978234</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1170</v>
       </c>
       <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
         <v>106</v>
       </c>
-      <c r="C35">
-        <v>123456</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>123456</v>
+      </c>
+      <c r="E35" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>33098</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>939217712</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1171</v>
       </c>
       <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="C36">
-        <v>123456</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>123456</v>
+      </c>
+      <c r="E36" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>32587</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>907579707</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1172</v>
       </c>
       <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="C37">
-        <v>123456</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>123456</v>
+      </c>
+      <c r="E37" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>32867</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>986017259</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1173</v>
       </c>
       <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="C38">
-        <v>123456</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D38">
+        <v>123456</v>
+      </c>
+      <c r="E38" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>32499</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>399388992</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1211</v>
       </c>
       <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" t="s">
         <v>118</v>
       </c>
-      <c r="C39">
-        <v>123456</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>123456</v>
+      </c>
+      <c r="E39" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>33735</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>384571511</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1212</v>
       </c>
       <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
         <v>121</v>
       </c>
-      <c r="C40">
-        <v>123456</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D40">
+        <v>123456</v>
+      </c>
+      <c r="E40" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>33619</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>938592659</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1217</v>
       </c>
       <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
         <v>124</v>
       </c>
-      <c r="C41">
-        <v>123456</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D41">
+        <v>123456</v>
+      </c>
+      <c r="E41" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>33160</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>983651040</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1248</v>
       </c>
       <c r="B42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" t="s">
         <v>127</v>
       </c>
-      <c r="C42">
-        <v>123456</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>123456</v>
+      </c>
+      <c r="E42" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>33872</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>967797242</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1249</v>
       </c>
       <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
         <v>130</v>
       </c>
-      <c r="C43">
-        <v>123456</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>123456</v>
+      </c>
+      <c r="E43" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>34261</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>388827124</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1319</v>
       </c>
       <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" t="s">
         <v>133</v>
       </c>
-      <c r="C44">
-        <v>123456</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>123456</v>
+      </c>
+      <c r="E44" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>34391</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>906906904</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1349</v>
       </c>
       <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="C45">
-        <v>123456</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>123456</v>
+      </c>
+      <c r="E45" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>33293</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>785425421</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1350</v>
       </c>
       <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
         <v>139</v>
       </c>
-      <c r="C46">
-        <v>123456</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>123456</v>
+      </c>
+      <c r="E46" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>34402</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>966440116</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1351</v>
       </c>
       <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
         <v>142</v>
       </c>
-      <c r="C47">
-        <v>123456</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <v>123456</v>
+      </c>
+      <c r="E47" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>34548</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>902447577</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1352</v>
       </c>
       <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
         <v>145</v>
       </c>
-      <c r="C48">
-        <v>123456</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>123456</v>
+      </c>
+      <c r="E48" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>31969</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>975083117</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1393</v>
       </c>
       <c r="B49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" t="s">
         <v>148</v>
       </c>
-      <c r="C49">
-        <v>123456</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <v>123456</v>
+      </c>
+      <c r="E49" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>32709</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>1</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>981851636</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1420</v>
       </c>
       <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" t="s">
         <v>151</v>
       </c>
-      <c r="C50">
-        <v>123456</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>123456</v>
+      </c>
+      <c r="E50" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>32527</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>584402703</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1426</v>
       </c>
       <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
         <v>154</v>
       </c>
-      <c r="C51">
-        <v>123456</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <v>123456</v>
+      </c>
+      <c r="E51" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>34501</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>966423379</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1427</v>
       </c>
       <c r="B52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" t="s">
         <v>157</v>
       </c>
-      <c r="C52">
-        <v>123456</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <v>123456</v>
+      </c>
+      <c r="E52" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>34919</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>859232721</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>173</v>
       </c>
       <c r="B53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" t="s">
         <v>160</v>
       </c>
-      <c r="C53">
-        <v>123456</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="D53">
+        <v>123456</v>
+      </c>
+      <c r="E53" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>25763</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>914190949</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>367</v>
       </c>
       <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
         <v>163</v>
       </c>
-      <c r="C54">
-        <v>123456</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <v>123456</v>
+      </c>
+      <c r="E54" t="s">
         <v>164</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>26521</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>165</v>
       </c>
     </row>
